--- a/biology/Médecine/Vincristine/Vincristine.xlsx
+++ b/biology/Médecine/Vincristine/Vincristine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vincristine est un alcaloïde extrait de la pervenche de Madagascar (Catharanthus roseus) utilisé comme traitement de chimiothérapie, dans la lutte contre les cancers. Elle fait partie du groupe des poisons du fuseau mitotique, car elle inhibe la polymérisation des microtubules lors de la mitose.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La vincristine est un principe actif isolé en 1965 à partir d'une fleur, la pervenche de Madagascar.
 La pervenche de Madagascar, ou Cataranthus roseus, est une plante tropicale originaire de Madagascar contenant un grand nombre d'alcaloïdes, en particulier au niveau de ses racines et parties aériennes (feuilles et fleurs). Cette plante est actuellement menacée dans son milieu naturel  notamment à cause de la déforestation.
@@ -551,7 +565,9 @@
           <t>Extraction[2] des alcaloïdes présents dans la pervenche de Madagascar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour extraire les alcaloïdes de la pervenche de Madagascar, il faut prélever les feuilles, les tiges et les fleurs de cette plante. Il est possible d'effectuer l'extraction à partir de différents solvants, parmi eux: le méthanol, le chloroforme, le dichlorométhane. À la suite d'une macération de deux semaines des composants de la plante, on évapore à sec le mélange obtenu puis on effectue une filtration à l'aide d'eau ultrapure.
 </t>
@@ -582,15 +598,12 @@
           <t>Biosynthèse et synthèse[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vincristine dérive d'un couplage entre deux alcaloïdes: la catharanthine et la vindoline, tous deux présents dans la pervenche de Madagascar mais en concentration plus importante que la vincristine. En effet, 1 kg de feuilles séchées de pervenche contient seulement 10 mg de vincristine contre 1 g/kg pour la vindoline et 300 mg/kg pour la catharanthine. On utilise donc préférentiellement le couplage lors de la biosynthèse et de la synthèse de la vincristine, le but étant d'obtenir le meilleur rendement. Ces deux procédés sont assez similaires.
-Biosynthèse
-Premièrement, il y a oxydation de la catharanthine (1) à l'aide d'une peroxydase, un peroxyde (2) étant alors formé. À la suite d'un réarrangement et de l'élimination d'un hydroperoxyle HO2, la liaison entre les deux atomes de carbone est rompue ; on obtient un dication intermédiaire (3). Celui-ci va être attaqué par la vindoline (4), qui est un nucléophile par substitution électrophile aromatique. Le produit de cette réaction (5) est réduit par le NADH pour donner le cycle dihydropyridinium (6). L'étape suivante correspond à une hydroxylation. Pour finir, il y a réduction par NADH qui réduit spécifiquement l'ammonium en amine tertiaire.On obtient ainsi la vincristine.
-Synthèse
-Premièrement, il y a oxydation de la catharantine (8) à l'aide d'acide m-chloroperbenzoïque qui conduit au dérivé N-oxyde de la catharanthine (9). À la suite d'un réarrangement et ajout d'anhydride trifluoroacétique, une liaison C-C est rompue. Un dication (10) est donc produit. Celui-ci est attaqué par la vindoline (11) qui est un nucléophile ce qui permet la substitution électrophile aromatique suivante. Sur la vindoline, le groupement méthoxy va favoriser une réaction en position ortho. Cette réaction entraîne la neutralisation de l'azote par effet mésomère. L'étape suivante est une réduction à l'aide 16'-épi-anhydrovinblastine et d'ions hydrure H-. Par ajout de chlorure de fer et d'oxygène, on réalise une oxydation qui mène au composé (14). Pour finir, du borohydrure de sodium permet la réduction sélective de l'ammonium en amine tertiaire. Le borohydrure de sodium ne réagit pas avec les autres groupements ce qui permet de les protéger. La vincristine est alors formée.
-</t>
+La vincristine dérive d'un couplage entre deux alcaloïdes: la catharanthine et la vindoline, tous deux présents dans la pervenche de Madagascar mais en concentration plus importante que la vincristine. En effet, 1 kg de feuilles séchées de pervenche contient seulement 10 mg de vincristine contre 1 g/kg pour la vindoline et 300 mg/kg pour la catharanthine. On utilise donc préférentiellement le couplage lors de la biosynthèse et de la synthèse de la vincristine, le but étant d'obtenir le meilleur rendement. Ces deux procédés sont assez similaires.</t>
         </is>
       </c>
     </row>
@@ -615,12 +628,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biosynthèse et synthèse[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biosynthèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Premièrement, il y a oxydation de la catharanthine (1) à l'aide d'une peroxydase, un peroxyde (2) étant alors formé. À la suite d'un réarrangement et de l'élimination d'un hydroperoxyle HO2, la liaison entre les deux atomes de carbone est rompue ; on obtient un dication intermédiaire (3). Celui-ci va être attaqué par la vindoline (4), qui est un nucléophile par substitution électrophile aromatique. Le produit de cette réaction (5) est réduit par le NADH pour donner le cycle dihydropyridinium (6). L'étape suivante correspond à une hydroxylation. Pour finir, il y a réduction par NADH qui réduit spécifiquement l'ammonium en amine tertiaire.On obtient ainsi la vincristine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biosynthèse et synthèse[3]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synthèse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Premièrement, il y a oxydation de la catharantine (8) à l'aide d'acide m-chloroperbenzoïque qui conduit au dérivé N-oxyde de la catharanthine (9). À la suite d'un réarrangement et ajout d'anhydride trifluoroacétique, une liaison C-C est rompue. Un dication (10) est donc produit. Celui-ci est attaqué par la vindoline (11) qui est un nucléophile ce qui permet la substitution électrophile aromatique suivante. Sur la vindoline, le groupement méthoxy va favoriser une réaction en position ortho. Cette réaction entraîne la neutralisation de l'azote par effet mésomère. L'étape suivante est une réduction à l'aide 16'-épi-anhydrovinblastine et d'ions hydrure H-. Par ajout de chlorure de fer et d'oxygène, on réalise une oxydation qui mène au composé (14). Pour finir, du borohydrure de sodium permet la réduction sélective de l'ammonium en amine tertiaire. Le borohydrure de sodium ne réagit pas avec les autres groupements ce qui permet de les protéger. La vincristine est alors formée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Mode d'action[4],[5]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vincristine empêche la polymérisation des microtubules en se fixant sur les dimères de tubuline libre, comme la colchicine ou la vinblastine. Cela entraîne un arrêt des mitoses et l'apoptose[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vincristine empêche la polymérisation des microtubules en se fixant sur les dimères de tubuline libre, comme la colchicine ou la vinblastine. Cela entraîne un arrêt des mitoses et l'apoptose.
 La mitose est une étape de la division cellulaire qui, à partir d'une cellule mère, aboutit à deux cellules-filles. Durant cette étape, les chromosomes vont migrer le long de microtubules. 
 Dans l'organisme, la vincristine agit sur le fuseau mitotique durant la métaphase en se liant à une protéine : la tubuline. La tubuline est un hétérodimère composé de tubuline alpha et de tubuline beta. Ces deux constituants se polymérisent pour donner des microtubules et le fuseau mitotique durant la division cellulaire. Les microtubules sont également capables de se dépolymériser pour donner des tubulines "libres". Ainsi, il y a un équilibre entre la quantité de tubulines "libres" et de microtubules. 
 Les alcaloïdes provenant de la pervenche de Madagascar comme la vincristine sont des poisons de la mitose. Sous l'action de ces alcaloïdes, les cellules cancéreuses qui par nature se multiplient anarchiquement sont dans l'incapacité à se diviser. En effet, la vincristine va empêcher la polymérisation de la tubuline et donc empêcher la formation du fuseau mitotique, composant indispensable à la migration des chromosomes dans les cellules filles. Elle va également induire une dépolymérisation accrue des microtubules déjà formées et inhiber l'hydrolyse de GTP. Le GTP est indispensable pour une polymérisation correcte de la tubuline. Les cellules étant dans l'incapacité à se diviser entrent en apoptose.  
@@ -634,64 +723,68 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">30 minutes après l'injection, 90 % de la molécule est distribuée dans les tissus. La fixation se fait de manière réversible.
-Le métabolisme de la vincristine est essentiellement hépatique. Son catabolisme au niveau des hépatocytes est assuré en majeure partie par le CYP3A4[7].
+Le métabolisme de la vincristine est essentiellement hépatique. Son catabolisme au niveau des hépatocytes est assuré en majeure partie par le CYP3A4.
 L'élimination se fait surtout par voie biliaire. La demi-vie du médicament est de 85h.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Indications[8]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La vincristine est notamment utilisée dans le traitement des leucémies aiguës lymphoblastiques, de la maladie de Hodgkin, des lymphomes non hodgkiniens et dans un grand nombre de cancers. Il peut s'agir d'un traitement en monochimiothérapie ou en polychimiothérapie.
 La vincristine est utilisée en association dans le traitement :
@@ -710,31 +803,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Mode d'administration</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La vincristine est une solution injectable par voie intraveineuse. Ce médicament peut être prescrit aux adultes et aux enfants, à dose variable.
 En monochimiothérapie, l'injection est hebdomadaire et en polychimiothérapie, elle est mensuelle.
@@ -743,31 +838,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Précautions d'emploi et contre-indications</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas utiliser ce principe actif en cas de neuropathie, de grossesse et d'allaitement ou à la suite de certaines vaccinations. Ce médicament est déconseillé pour les patients ayant une pathologie cardiaque ou un dysfonctionnement hépatique.
 La conduite après l'injection de vincristine est déconseillée à cause des effets indésirables.
@@ -775,33 +872,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'un des effets principaux est la neuropathie périphérique. Elle est moins fréquente chez les patients exprimant un type particulier de cytochrome, le CYP3A5[9] et moins rare chez ceux qui expriment un variant du gène CEP72[10].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des effets principaux est la neuropathie périphérique. Elle est moins fréquente chez les patients exprimant un type particulier de cytochrome, le CYP3A5 et moins rare chez ceux qui expriment un variant du gène CEP72.
 Les effets indésirables de cette molécule sont réversibles. L'effet indésirable principal est la neurotoxicité, il peut y avoir apparition de paresthésie et de douleurs névriliques.
 La constipation et les douleurs abdominales sont également fréquentes lors de ce traitement. De la fièvre, des convulsions, une hypertension et des troubles sensitifs peuvent parfois être observés.
 Au niveau du système digestif, des vomissements, une perte de poids ou une perforation intestinale sont possibles.
@@ -811,69 +910,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Conservation</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament peut être conservé au réfrigérateur, à l'abri de la lumière pendant 2 ans s'il n'est pas ouvert.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Prescription</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un médicament de liste I, uniquement disponible sous prescription hospitalière. Il ne peut être prescrit que par des oncologues ou spécialistes en cancérologie.
-Ce traitement nécessite une surveillance médicale.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
@@ -895,12 +931,81 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament peut être conservé au réfrigérateur, à l'abri de la lumière pendant 2 ans s'il n'est pas ouvert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Prescription</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un médicament de liste I, uniquement disponible sous prescription hospitalière. Il ne peut être prescrit que par des oncologues ou spécialistes en cancérologie.
+Ce traitement nécessite une surveillance médicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vincristine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincristine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vincristine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[11]
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vincristine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)
 </t>
         </is>
       </c>
